--- a/perforkid/database/school_database.xlsx
+++ b/perforkid/database/school_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13B237B-8F69-4A75-96EF-09BBDBFE8C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B8221F-19BF-425E-9C32-682011DA38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -33,9 +33,6 @@
     <t>ชื่อโรงเรียน</t>
   </si>
   <si>
-    <t>รหัส</t>
-  </si>
-  <si>
     <t>โรงเรียนอนุบาลโชคชัย</t>
   </si>
   <si>
@@ -340,6 +337,315 @@
   </si>
   <si>
     <t>qPgxnx</t>
+  </si>
+  <si>
+    <t>d2pJ2zMrMD</t>
+  </si>
+  <si>
+    <t>6AgU1GQhG6</t>
+  </si>
+  <si>
+    <t>8v2zrITzeD</t>
+  </si>
+  <si>
+    <t>BMH0LKdrgJ</t>
+  </si>
+  <si>
+    <t>1XZEI2i6pL</t>
+  </si>
+  <si>
+    <t>eTT5yNptAr</t>
+  </si>
+  <si>
+    <t>NRSaSuhyWO</t>
+  </si>
+  <si>
+    <t>OuUc8UOyy1</t>
+  </si>
+  <si>
+    <t>NxmycDHzVp</t>
+  </si>
+  <si>
+    <t>SBQGzylKBM</t>
+  </si>
+  <si>
+    <t>Hl2s3aaeh4</t>
+  </si>
+  <si>
+    <t>aWOdgD8NhM</t>
+  </si>
+  <si>
+    <t>wASk31espK</t>
+  </si>
+  <si>
+    <t>2GndUgvLuW</t>
+  </si>
+  <si>
+    <t>gaF4yYqOEi</t>
+  </si>
+  <si>
+    <t>s0b5Z1ZAQS</t>
+  </si>
+  <si>
+    <t>NLTSUOgGo4</t>
+  </si>
+  <si>
+    <t>Ge5GLAFiO6</t>
+  </si>
+  <si>
+    <t>JCq2hiv2LD</t>
+  </si>
+  <si>
+    <t>NH3DZ706Nn</t>
+  </si>
+  <si>
+    <t>ugGt1SJlTC</t>
+  </si>
+  <si>
+    <t>aWgqfLDdzc</t>
+  </si>
+  <si>
+    <t>G7AyuwOBbr</t>
+  </si>
+  <si>
+    <t>kdu4tiV7Fp</t>
+  </si>
+  <si>
+    <t>xSJwz7EtJK</t>
+  </si>
+  <si>
+    <t>ein7WenTx5</t>
+  </si>
+  <si>
+    <t>rsgKbl0cnv</t>
+  </si>
+  <si>
+    <t>VvQ1q8lvun</t>
+  </si>
+  <si>
+    <t>oOYwZqCKW5</t>
+  </si>
+  <si>
+    <t>gyttlOVxDP</t>
+  </si>
+  <si>
+    <t>uiAkWKnHkB</t>
+  </si>
+  <si>
+    <t>VwM77YTe3Z</t>
+  </si>
+  <si>
+    <t>c6BjlacG3T</t>
+  </si>
+  <si>
+    <t>4zV819XLqz</t>
+  </si>
+  <si>
+    <t>CzXE809awW</t>
+  </si>
+  <si>
+    <t>JqY3ZgH2dt</t>
+  </si>
+  <si>
+    <t>Kc1ZizjShE</t>
+  </si>
+  <si>
+    <t>qnZGvLwYMH</t>
+  </si>
+  <si>
+    <t>3zyI2eF79N</t>
+  </si>
+  <si>
+    <t>VGMReDfSGf</t>
+  </si>
+  <si>
+    <t>57t8qxjMvK</t>
+  </si>
+  <si>
+    <t>JuTDY4e7wm</t>
+  </si>
+  <si>
+    <t>uYemqhjBVY</t>
+  </si>
+  <si>
+    <t>3UiW35ww0T</t>
+  </si>
+  <si>
+    <t>mqWYrFN6Z8</t>
+  </si>
+  <si>
+    <t>bE6JtJEB8B</t>
+  </si>
+  <si>
+    <t>PprcLyFK3h</t>
+  </si>
+  <si>
+    <t>06qgBiqVZs</t>
+  </si>
+  <si>
+    <t>CPgLGmOIwg</t>
+  </si>
+  <si>
+    <t>kxgdCqzQOo</t>
+  </si>
+  <si>
+    <t>sGoTOTnmPg</t>
+  </si>
+  <si>
+    <t>lU7AapDysA</t>
+  </si>
+  <si>
+    <t>ZXnzpY1XnE</t>
+  </si>
+  <si>
+    <t>tilPYJxqOA</t>
+  </si>
+  <si>
+    <t>6VuY0lkRWL</t>
+  </si>
+  <si>
+    <t>nFfv4YPyz1</t>
+  </si>
+  <si>
+    <t>j8OzGgSxWq</t>
+  </si>
+  <si>
+    <t>TgW8GbYpRB</t>
+  </si>
+  <si>
+    <t>hLh5lLrdCJ</t>
+  </si>
+  <si>
+    <t>ifsZa4Zukx</t>
+  </si>
+  <si>
+    <t>8PkFPkp7yZ</t>
+  </si>
+  <si>
+    <t>L7n1ULOqOK</t>
+  </si>
+  <si>
+    <t>QqdtOzCSB5</t>
+  </si>
+  <si>
+    <t>eGNPjfNOOs</t>
+  </si>
+  <si>
+    <t>g4iqN1RzKY</t>
+  </si>
+  <si>
+    <t>syMwsadCy2</t>
+  </si>
+  <si>
+    <t>UwomONuxrh</t>
+  </si>
+  <si>
+    <t>GLen8S9qRU</t>
+  </si>
+  <si>
+    <t>Idzo7xnHcf</t>
+  </si>
+  <si>
+    <t>11cMACFh99</t>
+  </si>
+  <si>
+    <t>TYIqOxbuOq</t>
+  </si>
+  <si>
+    <t>os5ifBErxf</t>
+  </si>
+  <si>
+    <t>9aBYoJp7zE</t>
+  </si>
+  <si>
+    <t>15rHfwKqZJ</t>
+  </si>
+  <si>
+    <t>j0AsLJRbpI</t>
+  </si>
+  <si>
+    <t>MyFSgX62vk</t>
+  </si>
+  <si>
+    <t>8wCNV4d84Y</t>
+  </si>
+  <si>
+    <t>UMhMkroMs7</t>
+  </si>
+  <si>
+    <t>JcNUNwKdFS</t>
+  </si>
+  <si>
+    <t>EqxWYwx9v4</t>
+  </si>
+  <si>
+    <t>TrSOR0hNJ6</t>
+  </si>
+  <si>
+    <t>3JR4SYt74t</t>
+  </si>
+  <si>
+    <t>3aYnvaYQk0</t>
+  </si>
+  <si>
+    <t>5lSHLFRRaf</t>
+  </si>
+  <si>
+    <t>iZznLBkGPz</t>
+  </si>
+  <si>
+    <t>yqdlkJfg8c</t>
+  </si>
+  <si>
+    <t>X7Oyd5UFTj</t>
+  </si>
+  <si>
+    <t>9r1dY7uPHE</t>
+  </si>
+  <si>
+    <t>FyxAPoZ0NA</t>
+  </si>
+  <si>
+    <t>4dAkBZqlGB</t>
+  </si>
+  <si>
+    <t>HqvcKpm5kr</t>
+  </si>
+  <si>
+    <t>afXmIeKjNA</t>
+  </si>
+  <si>
+    <t>204E0NNg7H</t>
+  </si>
+  <si>
+    <t>Lx4PT1Q500</t>
+  </si>
+  <si>
+    <t>6JCwEXze71</t>
+  </si>
+  <si>
+    <t>nvJdZr47JE</t>
+  </si>
+  <si>
+    <t>84KOCtSDey</t>
+  </si>
+  <si>
+    <t>y54qsdz9xS</t>
+  </si>
+  <si>
+    <t>0sQ4r2p7hS</t>
+  </si>
+  <si>
+    <t>dHpov3T10W</t>
+  </si>
+  <si>
+    <t>w0y7p6XVVA</t>
+  </si>
+  <si>
+    <t>รหัสปกติ</t>
+  </si>
+  <si>
+    <t>รหัสสำหรับแอดมิน</t>
   </si>
 </sst>
 </file>
@@ -838,21 +1144,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I5" sqref="I5:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="9" customWidth="1"/>
-    <col min="2" max="2" width="27.8984375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.796875" style="4"/>
+    <col min="2" max="2" width="27.875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="25.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -860,918 +1167,1224 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>28</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>29</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>30</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>31</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>32</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>33</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>34</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>35</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>36</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>37</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>38</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>39</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>41</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>42</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>43</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>44</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>45</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>46</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>47</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>48</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>49</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>50</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>51</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>52</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>53</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>54</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>55</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>56</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>57</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>58</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>59</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>60</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>61</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>62</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>63</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>64</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>65</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>66</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>67</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>68</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>69</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>70</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>71</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>72</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>73</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>74</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>75</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>76</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>77</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>78</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>79</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>80</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>81</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>82</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>83</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>84</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>85</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>86</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>87</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>88</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>89</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>90</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>91</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>92</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>93</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>94</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>95</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>96</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>97</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>98</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>99</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7">
         <v>100</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/perforkid/database/school_database.xlsx
+++ b/perforkid/database/school_database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_code_Project\project_childcare_mobileapp\perforkid\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B8221F-19BF-425E-9C32-682011DA38EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214FAE91-E971-4060-97F4-81EFA90651AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="2745" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
-    <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>ชื่อโรงเรียน</t>
-  </si>
-  <si>
     <t>โรงเรียนอนุบาลโชคชัย</t>
   </si>
   <si>
@@ -642,10 +636,16 @@
     <t>w0y7p6XVVA</t>
   </si>
   <si>
-    <t>รหัสปกติ</t>
-  </si>
-  <si>
-    <t>รหัสสำหรับแอดมิน</t>
+    <t>index</t>
+  </si>
+  <si>
+    <t>school-name</t>
+  </si>
+  <si>
+    <t>school-code</t>
+  </si>
+  <si>
+    <t>school-admin-code</t>
   </si>
 </sst>
 </file>
@@ -1147,7 +1147,7 @@
   <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1161,10 +1161,10 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>204</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>205</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1193,10 +1193,10 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1205,10 +1205,10 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1217,10 +1217,10 @@
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,10 +1229,10 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1241,10 +1241,10 @@
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1253,10 +1253,10 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1265,10 +1265,10 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,10 +1277,10 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1289,10 +1289,10 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1301,10 +1301,10 @@
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,10 +1313,10 @@
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,10 +1325,10 @@
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1337,10 +1337,10 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1349,10 +1349,10 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1361,10 +1361,10 @@
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1373,10 +1373,10 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1385,10 +1385,10 @@
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1397,10 +1397,10 @@
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1409,10 +1409,10 @@
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1421,10 +1421,10 @@
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,10 +1433,10 @@
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,10 +1445,10 @@
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1457,10 +1457,10 @@
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,10 +1469,10 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1481,10 +1481,10 @@
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1493,10 +1493,10 @@
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1505,10 +1505,10 @@
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1517,10 +1517,10 @@
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1529,10 +1529,10 @@
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1541,10 +1541,10 @@
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1553,10 +1553,10 @@
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1565,10 +1565,10 @@
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1577,10 +1577,10 @@
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1589,10 +1589,10 @@
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1601,10 +1601,10 @@
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1613,10 +1613,10 @@
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1625,10 +1625,10 @@
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1637,10 +1637,10 @@
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1649,10 +1649,10 @@
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1661,10 +1661,10 @@
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1673,10 +1673,10 @@
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1685,10 +1685,10 @@
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1697,10 +1697,10 @@
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1709,10 +1709,10 @@
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,10 +1721,10 @@
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1733,10 +1733,10 @@
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1745,10 +1745,10 @@
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1757,10 +1757,10 @@
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1769,10 +1769,10 @@
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -1781,10 +1781,10 @@
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1793,10 +1793,10 @@
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -1805,10 +1805,10 @@
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,10 +1817,10 @@
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -1829,10 +1829,10 @@
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -1841,10 +1841,10 @@
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1853,10 +1853,10 @@
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -1865,10 +1865,10 @@
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -1877,10 +1877,10 @@
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1889,10 +1889,10 @@
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1901,10 +1901,10 @@
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -1913,10 +1913,10 @@
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -1925,10 +1925,10 @@
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1937,10 +1937,10 @@
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1949,10 +1949,10 @@
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1961,10 +1961,10 @@
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1973,10 +1973,10 @@
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1985,10 +1985,10 @@
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -1997,10 +1997,10 @@
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2009,10 +2009,10 @@
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2021,10 +2021,10 @@
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2033,10 +2033,10 @@
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2045,10 +2045,10 @@
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2057,10 +2057,10 @@
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2069,10 +2069,10 @@
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2081,10 +2081,10 @@
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2093,10 +2093,10 @@
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2105,10 +2105,10 @@
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2117,10 +2117,10 @@
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2129,10 +2129,10 @@
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2141,10 +2141,10 @@
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2153,10 +2153,10 @@
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2165,10 +2165,10 @@
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2177,10 +2177,10 @@
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2189,10 +2189,10 @@
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2201,10 +2201,10 @@
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2213,10 +2213,10 @@
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2225,10 +2225,10 @@
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2237,10 +2237,10 @@
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2249,10 +2249,10 @@
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2261,10 +2261,10 @@
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2273,10 +2273,10 @@
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2285,10 +2285,10 @@
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2297,10 +2297,10 @@
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2309,10 +2309,10 @@
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2321,10 +2321,10 @@
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2333,10 +2333,10 @@
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2345,10 +2345,10 @@
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2357,10 +2357,10 @@
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2369,10 +2369,10 @@
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2381,10 +2381,10 @@
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
